--- a/Labs/Lab07/Lab7Repository+UnitTests-Rubric_CS295N.xlsx
+++ b/Labs/Lab07/Lab7Repository+UnitTests-Rubric_CS295N.xlsx
@@ -1,41 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS295N-CourseMaterials\Labs\Lab07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/Labs/Lab07/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D000BF4D-8518-4B66-9301-A069851B3AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004B00ED-7DCA-7945-BACD-FE9534180A24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20388" yWindow="3348" windowWidth="10164" windowHeight="12348" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
+    <workbookView xWindow="16040" yWindow="3340" windowWidth="12760" windowHeight="12340" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Grade" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t xml:space="preserve">Total: </t>
   </si>
@@ -58,49 +49,37 @@
     <t>Part 2: Repositories and Unit Tests</t>
   </si>
   <si>
-    <t xml:space="preserve">    "Real" repositories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Interfaces</t>
-  </si>
-  <si>
     <t>Repositories (one or more)</t>
   </si>
   <si>
-    <t xml:space="preserve">    Modified controllers</t>
-  </si>
-  <si>
     <t>Unit Tests</t>
   </si>
   <si>
     <t xml:space="preserve">    DI in startup</t>
   </si>
   <si>
-    <t xml:space="preserve">    "Fake" repository (one or more)</t>
-  </si>
-  <si>
-    <t>For fall 2022 make this three or more</t>
-  </si>
-  <si>
     <t>Lab 7, All Groups</t>
   </si>
   <si>
     <t xml:space="preserve">    Code quality</t>
   </si>
   <si>
-    <t>Part 1: Ex 14-1</t>
-  </si>
-  <si>
     <t>Style and Best Practices</t>
   </si>
   <si>
-    <t>I increased the value of this for next year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Unit tests (2+ for controllers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Unit tests (3+ for controllers)</t>
+    <t xml:space="preserve">    Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Real" repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Modified controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Fake" repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Unit tests (2+ for controller methods)</t>
   </si>
 </sst>
 </file>
@@ -167,13 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -489,20 +467,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F9B31-93F6-EA4C-88EB-610E0C385149}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -511,7 +489,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -519,22 +497,20 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -545,22 +521,20 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
       </c>
-      <c r="C5" s="1">
-        <v>10</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -571,9 +545,9 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -582,69 +556,61 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
-        <v>7</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>6</v>
       </c>
-      <c r="C11" s="1">
-        <v>6</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -653,41 +619,35 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
         <v>7</v>
       </c>
-      <c r="C13" s="1">
-        <v>7</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="1">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -695,47 +655,32 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="2">
-        <f>SUM(B5:B17)</f>
+      <c r="B18" s="2">
+        <f>SUM(B5:B16)</f>
         <v>50</v>
       </c>
-      <c r="C19" s="2">
-        <f>SUM(C5:C17)</f>
-        <v>50</v>
-      </c>
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -745,21 +690,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500450CF-4036-4C7A-B372-CF82A859E7EB}">
-  <dimension ref="A3:D18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.69921875" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" customWidth="1"/>
-    <col min="3" max="3" width="7.09765625" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
     <col min="4" max="4" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -770,14 +726,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,26 +741,26 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
@@ -813,20 +769,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
       <c r="C9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -835,58 +791,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -896,12 +852,12 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -911,7 +867,7 @@
       </c>
       <c r="C18" s="2">
         <f>SUM(C5:C16)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Labs/Lab07/Lab7Repository+UnitTests-Rubric_CS295N.xlsx
+++ b/Labs/Lab07/Lab7Repository+UnitTests-Rubric_CS295N.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/Labs/Lab07/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS295N-CourseMaterials\Labs\Lab07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004B00ED-7DCA-7945-BACD-FE9534180A24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D0696D-544A-40B9-B576-31BA0A3EE4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16040" yWindow="3340" windowWidth="12760" windowHeight="12340" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
+    <workbookView xWindow="13092" yWindow="3900" windowWidth="15804" windowHeight="10896" activeTab="1" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Grade" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t xml:space="preserve">Total: </t>
   </si>
@@ -55,18 +66,9 @@
     <t>Unit Tests</t>
   </si>
   <si>
-    <t xml:space="preserve">    DI in startup</t>
-  </si>
-  <si>
     <t>Lab 7, All Groups</t>
   </si>
   <si>
-    <t xml:space="preserve">    Code quality</t>
-  </si>
-  <si>
-    <t>Style and Best Practices</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Interface</t>
   </si>
   <si>
@@ -80,6 +82,30 @@
   </si>
   <si>
     <t xml:space="preserve">    Unit tests (2+ for controller methods)</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DI in program.cs</t>
+  </si>
+  <si>
+    <t>Code quality and deployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Running on Azure</t>
+  </si>
+  <si>
+    <t>Very good work!</t>
+  </si>
+  <si>
+    <t>Here's the grade breakdown:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Style and best practices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Unit tests (2 or more for controller)</t>
   </si>
 </sst>
 </file>
@@ -146,13 +172,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,220 +498,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F9B31-93F6-EA4C-88EB-610E0C385149}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="2">
-        <f>SUM(B5:B16)</f>
-        <v>50</v>
-      </c>
-      <c r="C18" s="2"/>
+      <c r="B18" s="1">
+        <f>SUM(B5:B17)</f>
+        <v>40</v>
+      </c>
+      <c r="C18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -690,187 +640,216 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500450CF-4036-4C7A-B372-CF82A859E7EB}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="4" max="4" width="2" customWidth="1"/>
+    <col min="1" max="1" width="32.296875" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="5.796875" customWidth="1"/>
+    <col min="4" max="4" width="1.19921875" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2">
-        <f>SUM(B5:B16)</f>
-        <v>50</v>
-      </c>
-      <c r="C18" s="2">
-        <f>SUM(C5:C16)</f>
+      <c r="B19" s="1">
+        <f>SUM(B6:B18)</f>
         <v>40</v>
       </c>
+      <c r="C19" s="1">
+        <f>SUM(C6:C18)</f>
+        <v>40</v>
+      </c>
+      <c r="E19" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Labs/Lab07/Lab7Repository+UnitTests-Rubric_CS295N.xlsx
+++ b/Labs/Lab07/Lab7Repository+UnitTests-Rubric_CS295N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS295N-CourseMaterials\Labs\Lab07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D0696D-544A-40B9-B576-31BA0A3EE4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AED19F-4DA8-42CA-A83E-A038239AC496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13092" yWindow="3900" windowWidth="15804" windowHeight="10896" activeTab="1" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
+    <workbookView xWindow="180" yWindow="3024" windowWidth="13788" windowHeight="13656" activeTab="1" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t xml:space="preserve">    Running on Azure</t>
   </si>
   <si>
-    <t>Very good work!</t>
-  </si>
-  <si>
     <t>Here's the grade breakdown:</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Unit tests (2 or more for controller)</t>
+  </si>
+  <si>
+    <t>Excellent work!</t>
   </si>
 </sst>
 </file>
@@ -202,9 +202,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -242,7 +242,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -348,7 +348,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -490,7 +490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -608,7 +608,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -643,7 +643,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -663,7 +663,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -672,7 +672,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -791,7 +791,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>2</v>
